--- a/기획/방랑엽사전/레벨 디자인.xlsx
+++ b/기획/방랑엽사전/레벨 디자인.xlsx
@@ -2,26 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\방랑엽사전\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EA4292-93A4-48E2-A759-BAC448425ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D25611-2854-4B7A-802C-B80EE33D7533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="데미지 계산기" sheetId="4" r:id="rId1"/>
-    <sheet name="PC 능력치 테이블" sheetId="12" r:id="rId2"/>
-    <sheet name="상승 능력치" sheetId="11" r:id="rId3"/>
-    <sheet name="경지 달성 상승 능력치" sheetId="10" r:id="rId4"/>
-    <sheet name="PC 세부 능력치" sheetId="8" r:id="rId5"/>
+    <sheet name="계산기" sheetId="4" r:id="rId1"/>
+    <sheet name="상승 능력치" sheetId="11" r:id="rId2"/>
+    <sheet name="경지 달성 상승 능력치" sheetId="10" r:id="rId3"/>
+    <sheet name="PC 세부 능력치 테이블 항목" sheetId="12" r:id="rId4"/>
+    <sheet name="PC 세부 능력치 테이블 DB" sheetId="8" r:id="rId5"/>
     <sheet name="몬스터 ID 규칙" sheetId="7" r:id="rId6"/>
-    <sheet name="몬스터 능력치 테이블" sheetId="13" r:id="rId7"/>
+    <sheet name="몬스터 능력치 테이블 항목" sheetId="13" r:id="rId7"/>
     <sheet name="일반 몬스터" sheetId="6" r:id="rId8"/>
-    <sheet name="PC 능력치 한계치(참고용)" sheetId="2" r:id="rId9"/>
+    <sheet name="보스 몬스터" sheetId="14" r:id="rId9"/>
+    <sheet name="PC 능력치 한계치(참고용)" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="349">
   <si>
     <t>경지</t>
   </si>
@@ -352,12 +353,6 @@
     <t>mb=Mobs</t>
   </si>
   <si>
-    <t>sr=Spirit</t>
-  </si>
-  <si>
-    <t>ou=Outer</t>
-  </si>
-  <si>
     <t>재생력</t>
   </si>
   <si>
@@ -476,9 +471,6 @@
   </si>
   <si>
     <t>mbsp0018</t>
-  </si>
-  <si>
-    <t>bs=Beast</t>
   </si>
   <si>
     <t>mbbs0019</t>
@@ -1119,10 +1111,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>요물이 회복되는 속도</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>공격을 받을 경우 피할 확률. 원령의 경우 기본적으로 높다.</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1177,16 +1165,111 @@
   <si>
     <t>경지차 데미지 감소치</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동 불능 상태에서 회복되는 속도</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 데미지 공식 : (PC 현재 종합 공격력-대방 방어력)*스킬 데미지 계수 *스킬 발생 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 발생 : 일반 데미지 공식 * 현재 치명타 회소 데미지 ~ 현재 치명타 최대 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경지차 데미지 공식 : 일반 데미지 공식* 경지차 데미지 감소치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbou0034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbou0035</t>
+  </si>
+  <si>
+    <t>mbou0036</t>
+  </si>
+  <si>
+    <t>나찰녀</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 원령</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐욕의 말로</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤틀린 산신</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>광마</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr=Spirit[원령]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs=Beast[요괴]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ou=Outer[요물]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbsr1001</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbsr1002</t>
+  </si>
+  <si>
+    <t>mbsr1003</t>
+  </si>
+  <si>
+    <t>mbsr1004</t>
+  </si>
+  <si>
+    <t>mbsr1005</t>
+  </si>
+  <si>
+    <t>입힌 피해만큼 체력을 회복함</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="182" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2360,14 +2443,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2673,226 +2756,241 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3848,16 +3946,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="36.625" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.375" customWidth="1"/>
     <col min="9" max="9" width="21.375" style="59" customWidth="1"/>
     <col min="10" max="10" width="5.625" style="59" customWidth="1"/>
@@ -3868,23 +3968,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" thickBot="1">
-      <c r="A1" s="107" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="108">
+      <c r="A1" s="104" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="105">
         <v>1</v>
       </c>
+      <c r="C1" s="149" t="str">
+        <f>IF(B1&gt;101, "최대 값 초과","")</f>
+        <v/>
+      </c>
       <c r="D1" s="64" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I1" s="64" t="s">
         <v>18</v>
@@ -3894,7 +3998,7 @@
         <v>500</v>
       </c>
       <c r="L1" s="64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M1" s="74">
         <f>IF(B1&lt;=10,250,IF(B1&lt;=20,500,IF(B1&lt;=30,500,IF(B1&lt;=40,750,IF(B1&lt;=40,1000,IF(B1&lt;=60,1250,IF(B1&lt;=80,1500,IF(B1&lt;=100,1750,IF(B1&lt;=101,2000)))))))))</f>
@@ -3903,14 +4007,14 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="59" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="59">
         <f>IF(B1&lt;=20,1,IF(B1&lt;=30,2,IF(B1&lt;=40,3,IF(B1&lt;=50,4,IF(B1&lt;=60,5,IF(B1&lt;=80,6,IF(B1&lt;=100,7,IF(B1&gt;=101,8))))))))</f>
         <v>1</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E2" s="62">
         <v>15</v>
@@ -3929,7 +4033,7 @@
         <v>50</v>
       </c>
       <c r="L2" s="68" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M2" s="75">
         <f>IF(B1&lt;=10,50,IF(B1&lt;=20,50,IF(B1&lt;=30,50,IF(B1&lt;=40,75,IF(B1&lt;=50,100,IF(B1&lt;=60,125,IF(B1&lt;=80,150,IF(B1&lt;=1000,175,IF(B1&lt;=101,200)))))))))</f>
@@ -3938,14 +4042,14 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <f>J26+B8</f>
         <v>685</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E3" s="62">
         <v>5</v>
@@ -3964,7 +4068,7 @@
         <v>55</v>
       </c>
       <c r="L3" s="68" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M3" s="75">
         <f>IF(B1&lt;=10,10,IF(B1&lt;=20,55,IF(B1&lt;=30,70,IF(B1&lt;=40,85,IF(B1&lt;=50,100,IF(B1&lt;=60,100,IF(B1&lt;=80,150,IF(B1&lt;=100,300,IF(B1&lt;=101,400)))))))))</f>
@@ -3975,14 +4079,14 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B4">
         <f>J27+B9</f>
         <v>65</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E4" s="62">
         <v>1</v>
@@ -4001,7 +4105,7 @@
         <v>55</v>
       </c>
       <c r="L4" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M4" s="76">
         <f>IF(B1&lt;=10,10,IF(B1&lt;=20,55,IF(B1&lt;=30,70,IF(B1&lt;=40,85,IF(B1&lt;=50,100,IF(B1&lt;=60,100,IF(B1&lt;=80,150,IF(B1&lt;=100,300,IF(B1&lt;=101,400)))))))))</f>
@@ -4012,14 +4116,14 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B5" s="97">
         <f>ROUND((B6+B7+B12)*(1+B13/100),0)</f>
         <v>205</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E5" s="71">
         <v>1</v>
@@ -4035,7 +4139,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B6" s="6">
         <f>J28+B10</f>
@@ -4044,14 +4148,14 @@
       <c r="D6" s="59"/>
       <c r="E6" s="59"/>
       <c r="I6" s="64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J6" s="74">
         <f>IF(B2&lt;=7,25*(B2-1),IF(B2=8,25*6+500))</f>
         <v>0</v>
       </c>
       <c r="L6" s="84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M6" s="85">
         <f>IF(B2&lt;=7,25,IF(B2=8,500))</f>
@@ -4062,27 +4166,27 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B7" s="6">
         <f>J29+B11</f>
         <v>101</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E7" s="74">
         <v>25</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J7" s="75">
         <f>IF(B2&lt;=4,(B2-1)*5,IF(B2&lt;=7,15+(B2-3)*10,IF(B2&gt;=8,95)))</f>
         <v>0</v>
       </c>
       <c r="L7" s="68" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M7" s="75">
         <f>IF(B2&lt;=4,5,IF(B2&lt;=7,10,IF(B2=8,50)))</f>
@@ -4091,27 +4195,27 @@
       <c r="S7" s="33"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="177" t="s">
-        <v>326</v>
+      <c r="A8" s="147" t="s">
+        <v>322</v>
       </c>
       <c r="B8" s="6">
         <v>500</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E8" s="75">
         <v>15</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J8" s="75">
         <f>IF(B2&lt;=4,0,IF(B2&gt;=5,(B2-4)*10))</f>
         <v>0</v>
       </c>
       <c r="L8" s="68" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M8" s="75">
         <f>IF(B2&lt;=4,0,IF(B2&lt;=8,10))</f>
@@ -4124,21 +4228,21 @@
       <c r="T8" s="34"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="177" t="s">
-        <v>325</v>
+      <c r="A9" s="147" t="s">
+        <v>321</v>
       </c>
       <c r="B9" s="6">
         <v>15</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E9" s="75">
         <v>2</v>
       </c>
       <c r="H9" s="83"/>
       <c r="I9" s="81" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J9" s="82">
         <f>IF(B2&lt;=4,0,IF(B2&gt;=5,(B2-4)*10))</f>
@@ -4146,7 +4250,7 @@
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="70" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M9" s="76">
         <f>IF(B2&lt;=4,0,IF(B2&lt;=8,10))</f>
@@ -4162,14 +4266,14 @@
       <c r="V9" s="31"/>
     </row>
     <row r="10" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A10" s="177" t="s">
-        <v>323</v>
+      <c r="A10" s="147" t="s">
+        <v>319</v>
       </c>
       <c r="B10" s="6">
         <v>100</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E10" s="76">
         <v>2</v>
@@ -4190,8 +4294,8 @@
       <c r="V10" s="46"/>
     </row>
     <row r="11" spans="1:22" s="15" customFormat="1">
-      <c r="A11" s="177" t="s">
-        <v>324</v>
+      <c r="A11" s="147" t="s">
+        <v>320</v>
       </c>
       <c r="B11" s="6">
         <v>100</v>
@@ -4202,7 +4306,7 @@
       <c r="F11"/>
       <c r="H11" s="86"/>
       <c r="I11" s="64" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J11" s="74">
         <v>250</v>
@@ -4218,20 +4322,20 @@
     </row>
     <row r="12" spans="1:22" s="15" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="64" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E12" s="74"/>
       <c r="G12"/>
       <c r="H12" s="87"/>
       <c r="I12" s="68" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J12" s="75">
         <v>50</v>
@@ -4256,13 +4360,13 @@
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="68" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E13" s="75"/>
       <c r="G13"/>
       <c r="H13" s="88"/>
       <c r="I13" s="68" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J13" s="75">
         <v>10</v>
@@ -4280,12 +4384,12 @@
     </row>
     <row r="14" spans="1:22" ht="17.25" thickBot="1">
       <c r="D14" s="68" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E14" s="75"/>
       <c r="H14" s="89"/>
       <c r="I14" s="70" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J14" s="76">
         <v>10</v>
@@ -4300,14 +4404,14 @@
       <c r="V14" s="30"/>
     </row>
     <row r="15" spans="1:22" ht="17.25" thickBot="1">
-      <c r="A15" s="169" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" s="171">
+      <c r="A15" s="139" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="141">
         <v>1</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E15" s="76"/>
       <c r="H15" s="34"/>
@@ -4321,22 +4425,22 @@
       <c r="V15" s="30"/>
     </row>
     <row r="16" spans="1:22" ht="17.25" thickBot="1">
-      <c r="A16" s="170" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" s="172">
+      <c r="A16" s="140" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="142">
         <f>IF(B15&lt;=20,1,IF(B15&lt;=30,2,IF(B15&lt;=40,3,IF(B15&lt;=50,4,IF(B15&lt;=60,5,IF(B15&lt;=80,6,IF(B15&lt;=100,7,IF(B15&gt;=101,8))))))))</f>
         <v>1</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="64" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J16" s="74">
         <v>10</v>
       </c>
       <c r="L16" s="90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M16" s="91">
         <f>M1+M6+(B1-(B2*10))*J16</f>
@@ -4360,7 +4464,7 @@
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="64" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E17" s="74">
         <f>E12*E2+E13*F2+E14*G2+E7*E15</f>
@@ -4368,14 +4472,14 @@
       </c>
       <c r="H17" s="36"/>
       <c r="I17" s="68" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J17" s="75">
         <v>0</v>
       </c>
       <c r="K17" s="83"/>
       <c r="L17" s="68" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M17" s="92">
         <f>M2+M7+(B1-(B2*10))*J17</f>
@@ -4393,21 +4497,21 @@
     </row>
     <row r="18" spans="1:22" ht="17.25" thickBot="1">
       <c r="D18" s="68" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E18" s="69">
         <f>E3*E12+F3*E13+G3*E14+E8*E15</f>
         <v>0</v>
       </c>
       <c r="I18" s="68" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J18" s="75">
         <v>1</v>
       </c>
       <c r="K18" s="93"/>
       <c r="L18" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M18" s="92">
         <f>M3+J8+(B1-(B2*10))*J18</f>
@@ -4425,21 +4529,21 @@
         <v>455</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E19" s="69">
         <f>E4*E12+F4*E13+G4*E14+E9*E15</f>
         <v>0</v>
       </c>
       <c r="I19" s="81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J19" s="82">
         <v>1</v>
       </c>
       <c r="K19" s="94"/>
       <c r="L19" s="70" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M19" s="82">
         <f>M4+J9+(B1-(B2*10))*J19</f>
@@ -4456,7 +4560,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E20" s="76">
         <f>E5*E12+F5*E13+G5*E14+E10*E15</f>
@@ -4474,7 +4578,7 @@
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="I21" s="64" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J21" s="74">
         <f>M16+E17+E22</f>
@@ -4488,11 +4592,11 @@
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="D22" s="77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E22" s="67"/>
       <c r="I22" s="68" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J22" s="75">
         <f>M17+E18+E23</f>
@@ -4511,11 +4615,11 @@
         <v>35</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E23" s="69"/>
       <c r="I23" s="68" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J23" s="75">
         <f>M18+E19+E24</f>
@@ -4532,11 +4636,11 @@
         <v>30</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E24" s="69"/>
       <c r="I24" s="70" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J24" s="76">
         <f>M19+E20+E25</f>
@@ -4549,28 +4653,28 @@
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="174">
+      <c r="B25" s="144">
         <f>1.1+B27/100</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="D25" s="79" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E25" s="73"/>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
     </row>
     <row r="26" spans="1:22" ht="17.25" thickBot="1">
-      <c r="A26" s="173" t="s">
+      <c r="A26" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="176">
+      <c r="B26" s="146">
         <f>1.3+B27/100</f>
         <v>1.4000000000000001</v>
       </c>
       <c r="H26" s="59"/>
       <c r="I26" s="98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J26" s="99">
         <f>IF(J21&gt;=J1,J1,J21)</f>
@@ -4579,14 +4683,14 @@
     </row>
     <row r="27" spans="1:22" ht="17.25" thickBot="1">
       <c r="A27" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="175">
+        <v>198</v>
+      </c>
+      <c r="B27" s="145">
         <v>10</v>
       </c>
       <c r="H27" s="59"/>
       <c r="I27" s="100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J27" s="101">
         <f>IF(J22&gt;=J2,J2,J22)</f>
@@ -4598,7 +4702,7 @@
       <c r="B28" s="14"/>
       <c r="H28" s="59"/>
       <c r="I28" s="100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J28" s="101">
         <f>IF(J23&gt;=J3,J3,J23)</f>
@@ -4607,7 +4711,7 @@
     </row>
     <row r="29" spans="1:22" ht="17.25" thickBot="1">
       <c r="A29" s="59" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B29" t="str">
         <f>IF(B2-B16&gt;=0,"감소량 없음",(1-(B16-B2)*0.1))</f>
@@ -4615,7 +4719,7 @@
       </c>
       <c r="H29" s="59"/>
       <c r="I29" s="102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J29" s="103">
         <f>IF(J24&gt;=J4,J4,J24)</f>
@@ -4633,7 +4737,14 @@
         <f>ROUND(IF(B5-B17&gt;0,IF(B29="감소량 없음",B5*B19*B20,B29*B5*B19*B20),"무효"),0)</f>
         <v>373100</v>
       </c>
-      <c r="H31" s="59"/>
+      <c r="D31" s="150" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
     </row>
     <row r="32" spans="1:22" ht="17.25" thickBot="1">
       <c r="A32" s="18" t="s">
@@ -4643,9 +4754,16 @@
         <f>IF(B31="무효","무효",B31*B25)</f>
         <v>447720.00000000006</v>
       </c>
-      <c r="H32" s="59"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" thickBot="1">
+      <c r="D32" s="150" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" thickBot="1">
       <c r="A33" s="20" t="s">
         <v>36</v>
       </c>
@@ -4653,314 +4771,273 @@
         <f>IF(B31="무효","무효",B31*B26)</f>
         <v>522340.00000000006</v>
       </c>
-      <c r="H33" s="59"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="H34" s="59"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="D33" s="150" t="s">
+        <v>327</v>
+      </c>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="H35" s="59"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="H36" s="59"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="H37" s="59"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="H39" s="59"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="H40" s="59"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="H41" s="59"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="H42" s="59"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="9.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>110</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="180"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>140</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="180" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>170</v>
+      </c>
+      <c r="E4">
+        <v>750</v>
+      </c>
+      <c r="F4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="180"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="180"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>1250</v>
+      </c>
+      <c r="F6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="180" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>1500</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="180"/>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+      <c r="E8">
+        <v>1750</v>
+      </c>
+      <c r="F8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="180" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>800</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="180"/>
+      <c r="C10" s="3">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>2500</v>
+      </c>
+      <c r="F10">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D05C2F-89FB-45A2-A796-34E695BCBEB8}">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4">
-        <v>250</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>9999</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="59" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11">
-        <v>110</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="59" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12">
-        <v>130</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>9999</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>292</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5896A80B-DD00-4028-8533-8C828CA4780F}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4980,63 +5057,63 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="163">
+        <v>1</v>
+      </c>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="164">
+        <v>2</v>
+      </c>
+      <c r="G2" s="164"/>
+      <c r="H2" s="165">
+        <v>3</v>
+      </c>
+      <c r="I2" s="165"/>
+      <c r="J2" s="166">
+        <v>4</v>
+      </c>
+      <c r="K2" s="166"/>
+      <c r="L2" s="167">
+        <v>5</v>
+      </c>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168">
+        <v>6</v>
+      </c>
+      <c r="O2" s="168"/>
+      <c r="P2" s="161">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="110">
+        <v>8</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B1" t="s">
-        <v>226</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="113">
-        <v>1</v>
-      </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114">
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115">
-        <v>3</v>
-      </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116">
-        <v>4</v>
-      </c>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117">
-        <v>5</v>
-      </c>
-      <c r="M2" s="117"/>
-      <c r="N2" s="118">
-        <v>6</v>
-      </c>
-      <c r="O2" s="118"/>
-      <c r="P2" s="119">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="120">
-        <v>8</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="109" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="27">
@@ -5046,444 +5123,419 @@
         <v>2</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F3" s="27">
         <v>21</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H3" s="27">
         <v>31</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J3" s="27">
         <v>41</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L3" s="27">
         <v>51</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N3" s="27">
         <v>61</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P3" s="27">
         <v>81</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R3" s="28">
         <v>101</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="162" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="113" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="124" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="125" t="s">
+      <c r="E5" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="F5" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="G5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="O5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="R5" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" s="126" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="H5" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="I5" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="J5" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="K5" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="L5" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="M5" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="N5" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="O5" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="P5" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q5" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="R5" s="125" t="s">
-        <v>232</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="127">
+      <c r="C6" s="154">
         <v>500</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127">
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154">
         <v>750</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127">
+      <c r="G6" s="154"/>
+      <c r="H6" s="154">
         <v>1000</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127">
+      <c r="I6" s="154"/>
+      <c r="J6" s="154">
         <v>1250</v>
       </c>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127">
+      <c r="K6" s="154"/>
+      <c r="L6" s="154">
         <v>1500</v>
       </c>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127">
+      <c r="M6" s="154"/>
+      <c r="N6" s="154">
         <v>1750</v>
       </c>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127">
+      <c r="O6" s="154"/>
+      <c r="P6" s="154">
         <v>2000</v>
       </c>
-      <c r="Q6" s="127"/>
+      <c r="Q6" s="154"/>
       <c r="R6" s="28">
         <v>2500</v>
       </c>
       <c r="S6" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="108" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="159" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="122" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="123"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="160"/>
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="128">
+      <c r="C8" s="153">
         <v>50</v>
       </c>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="127">
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="154">
         <v>75</v>
       </c>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127">
+      <c r="G8" s="154"/>
+      <c r="H8" s="154">
         <v>100</v>
       </c>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127">
+      <c r="I8" s="154"/>
+      <c r="J8" s="154">
         <v>125</v>
       </c>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127">
+      <c r="K8" s="154"/>
+      <c r="L8" s="154">
         <v>150</v>
       </c>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127">
+      <c r="M8" s="154"/>
+      <c r="N8" s="154">
         <v>175</v>
       </c>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127">
+      <c r="O8" s="154"/>
+      <c r="P8" s="154">
         <v>200</v>
       </c>
-      <c r="Q8" s="127"/>
+      <c r="Q8" s="154"/>
       <c r="R8" s="28">
         <v>250</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="129" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="130" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="131" t="s">
+      <c r="A9" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="132"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="156"/>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="128">
+      <c r="C10" s="153">
         <v>55</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="127">
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="154">
         <v>70</v>
       </c>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127">
+      <c r="G10" s="154"/>
+      <c r="H10" s="154">
         <v>85</v>
       </c>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127">
+      <c r="I10" s="154"/>
+      <c r="J10" s="154">
         <v>100</v>
       </c>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127">
+      <c r="K10" s="154"/>
+      <c r="L10" s="154">
         <v>200</v>
       </c>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127">
+      <c r="M10" s="154"/>
+      <c r="N10" s="154">
         <v>300</v>
       </c>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127">
+      <c r="O10" s="154"/>
+      <c r="P10" s="154">
         <v>400</v>
       </c>
-      <c r="Q10" s="127"/>
+      <c r="Q10" s="154"/>
       <c r="R10" s="28">
         <v>500</v>
       </c>
       <c r="S10" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="157" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="129" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="130" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="137" t="s">
-        <v>246</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="138"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="158"/>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="128">
+      <c r="C12" s="153">
         <v>55</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="127">
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="154">
         <v>70</v>
       </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127">
+      <c r="G12" s="154"/>
+      <c r="H12" s="154">
         <v>85</v>
       </c>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127">
+      <c r="I12" s="154"/>
+      <c r="J12" s="154">
         <v>100</v>
       </c>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127">
+      <c r="K12" s="154"/>
+      <c r="L12" s="154">
         <v>200</v>
       </c>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127">
+      <c r="M12" s="154"/>
+      <c r="N12" s="154">
         <v>300</v>
       </c>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127">
+      <c r="O12" s="154"/>
+      <c r="P12" s="154">
         <v>400</v>
       </c>
-      <c r="Q12" s="127"/>
+      <c r="Q12" s="154"/>
       <c r="R12" s="28">
         <v>500</v>
       </c>
       <c r="S12" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="109" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="151" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="111" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="112" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="135" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="136"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="152"/>
       <c r="S13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C11:R11"/>
-    <mergeCell ref="C13:R13"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C9:R9"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C7:R7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="C4:R4"/>
     <mergeCell ref="C6:E6"/>
@@ -5499,14 +5551,40 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="C7:R7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:R9"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C11:R11"/>
+    <mergeCell ref="C13:R13"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630315E0-79D0-4E10-8C34-E7696647BB29}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5522,148 +5600,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="118" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="120" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="F1" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141" t="s">
+      <c r="G1" s="120" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="H1" s="120" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="I1" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="G1" s="141" t="s">
+      <c r="J1" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="141" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="17.25" thickTop="1">
+      <c r="A2" s="169" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="B2" s="171" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="142" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" thickTop="1">
-      <c r="A2" s="143" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="144" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="149">
+      <c r="D2" s="125">
         <v>25</v>
       </c>
-      <c r="E2" s="149">
+      <c r="E2" s="125">
         <v>25</v>
       </c>
-      <c r="F2" s="149">
+      <c r="F2" s="125">
         <v>25</v>
       </c>
-      <c r="G2" s="149">
+      <c r="G2" s="125">
         <v>25</v>
       </c>
-      <c r="H2" s="149">
+      <c r="H2" s="125">
         <v>25</v>
       </c>
-      <c r="I2" s="149">
+      <c r="I2" s="125">
         <v>25</v>
       </c>
-      <c r="J2" s="150">
+      <c r="J2" s="126">
         <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="143"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="145" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="145">
+      <c r="A3" s="169"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="122" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="122">
         <v>5</v>
       </c>
-      <c r="E3" s="145">
+      <c r="E3" s="122">
         <v>5</v>
       </c>
-      <c r="F3" s="145">
+      <c r="F3" s="122">
         <v>5</v>
       </c>
-      <c r="G3" s="145">
+      <c r="G3" s="122">
         <v>10</v>
       </c>
-      <c r="H3" s="145">
+      <c r="H3" s="122">
         <v>10</v>
       </c>
-      <c r="I3" s="145">
+      <c r="I3" s="122">
         <v>10</v>
       </c>
-      <c r="J3" s="146">
+      <c r="J3" s="123">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="143"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="145" t="s">
+      <c r="A4" s="169"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="145">
+      <c r="D4" s="122">
         <v>0</v>
       </c>
-      <c r="E4" s="145">
+      <c r="E4" s="122">
         <v>0</v>
       </c>
-      <c r="F4" s="145">
+      <c r="F4" s="122">
         <v>0</v>
       </c>
-      <c r="G4" s="145">
+      <c r="G4" s="122">
         <v>10</v>
       </c>
-      <c r="H4" s="145">
+      <c r="H4" s="122">
         <v>10</v>
       </c>
-      <c r="I4" s="145">
+      <c r="I4" s="122">
         <v>10</v>
       </c>
-      <c r="J4" s="146">
+      <c r="J4" s="123">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="147"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="148" t="s">
+      <c r="A5" s="170"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="148">
+      <c r="D5" s="124">
         <v>0</v>
       </c>
-      <c r="E5" s="148">
+      <c r="E5" s="124">
         <v>0</v>
       </c>
-      <c r="F5" s="148">
+      <c r="F5" s="124">
         <v>0</v>
       </c>
-      <c r="G5" s="148">
+      <c r="G5" s="124">
         <v>10</v>
       </c>
-      <c r="H5" s="148">
+      <c r="H5" s="124">
         <v>10</v>
       </c>
-      <c r="I5" s="148">
+      <c r="I5" s="124">
         <v>10</v>
       </c>
-      <c r="J5" s="130">
+      <c r="J5" s="115">
         <v>10</v>
       </c>
     </row>
@@ -5677,12 +5755,287 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D05C2F-89FB-45A2-A796-34E695BCBEB8}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>9999</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11">
+        <v>110</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12">
+        <v>130</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>9999</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2048F22-5405-4628-A6EA-5315FEE54BFE}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5695,10 +6048,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="109" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>218</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -5710,7 +6063,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -5733,10 +6086,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="109" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>220</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -5748,7 +6101,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
@@ -5773,7 +6126,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="109">
+      <c r="D3" s="106">
         <v>75</v>
       </c>
       <c r="E3">
@@ -5811,7 +6164,7 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="109">
+      <c r="D4" s="106">
         <f>D3*3</f>
         <v>225</v>
       </c>
@@ -5854,7 +6207,7 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="109">
+      <c r="D5" s="106">
         <f t="shared" ref="D5:D42" si="4">D4*1.05</f>
         <v>236.25</v>
       </c>
@@ -5897,7 +6250,7 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="109">
+      <c r="D6" s="106">
         <f t="shared" si="4"/>
         <v>248.0625</v>
       </c>
@@ -5940,7 +6293,7 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="106">
         <f t="shared" si="4"/>
         <v>260.46562499999999</v>
       </c>
@@ -5983,7 +6336,7 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="109">
+      <c r="D8" s="106">
         <f t="shared" si="4"/>
         <v>273.48890625000001</v>
       </c>
@@ -6026,7 +6379,7 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="109">
+      <c r="D9" s="106">
         <f t="shared" si="4"/>
         <v>287.16335156250005</v>
       </c>
@@ -6069,7 +6422,7 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="106">
         <f t="shared" si="4"/>
         <v>301.52151914062506</v>
       </c>
@@ -6112,7 +6465,7 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="109">
+      <c r="D11" s="106">
         <f t="shared" si="4"/>
         <v>316.59759509765632</v>
       </c>
@@ -6155,7 +6508,7 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="109">
+      <c r="D12" s="106">
         <f t="shared" si="4"/>
         <v>332.42747485253915</v>
       </c>
@@ -6198,7 +6551,7 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="109">
+      <c r="D13" s="106">
         <f t="shared" si="4"/>
         <v>349.04884859516613</v>
       </c>
@@ -6241,7 +6594,7 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="109">
+      <c r="D14" s="106">
         <f t="shared" si="4"/>
         <v>366.50129102492446</v>
       </c>
@@ -6284,7 +6637,7 @@
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" s="109">
+      <c r="D15" s="106">
         <f t="shared" si="4"/>
         <v>384.82635557617067</v>
       </c>
@@ -6327,7 +6680,7 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="106">
         <f t="shared" si="4"/>
         <v>404.06767335497921</v>
       </c>
@@ -6370,7 +6723,7 @@
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" s="109">
+      <c r="D17" s="106">
         <f t="shared" si="4"/>
         <v>424.2710570227282</v>
       </c>
@@ -6413,7 +6766,7 @@
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="109">
+      <c r="D18" s="106">
         <f t="shared" si="4"/>
         <v>445.48460987386466</v>
       </c>
@@ -6456,7 +6809,7 @@
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" s="109">
+      <c r="D19" s="106">
         <f t="shared" si="4"/>
         <v>467.75884036755792</v>
       </c>
@@ -6499,7 +6852,7 @@
       <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" s="109">
+      <c r="D20" s="106">
         <f t="shared" si="4"/>
         <v>491.14678238593586</v>
       </c>
@@ -6542,7 +6895,7 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="109">
+      <c r="D21" s="106">
         <f t="shared" si="4"/>
         <v>515.70412150523271</v>
       </c>
@@ -6585,7 +6938,7 @@
       <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" s="109">
+      <c r="D22" s="106">
         <f t="shared" si="4"/>
         <v>541.48932758049432</v>
       </c>
@@ -6628,7 +6981,7 @@
       <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" s="109">
+      <c r="D23" s="106">
         <f t="shared" si="4"/>
         <v>568.5637939595191</v>
       </c>
@@ -6671,7 +7024,7 @@
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" s="109">
+      <c r="D24" s="106">
         <f t="shared" si="4"/>
         <v>596.9919836574951</v>
       </c>
@@ -6714,7 +7067,7 @@
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="109">
+      <c r="D25" s="106">
         <f t="shared" si="4"/>
         <v>626.84158284036982</v>
       </c>
@@ -6757,7 +7110,7 @@
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" s="109">
+      <c r="D26" s="106">
         <f t="shared" si="4"/>
         <v>658.18366198238834</v>
       </c>
@@ -6800,7 +7153,7 @@
       <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27" s="109">
+      <c r="D27" s="106">
         <f t="shared" si="4"/>
         <v>691.09284508150779</v>
       </c>
@@ -6843,7 +7196,7 @@
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" s="109">
+      <c r="D28" s="106">
         <f t="shared" si="4"/>
         <v>725.64748733558326</v>
       </c>
@@ -6886,7 +7239,7 @@
       <c r="C29">
         <v>28</v>
       </c>
-      <c r="D29" s="109">
+      <c r="D29" s="106">
         <f t="shared" si="4"/>
         <v>761.92986170236247</v>
       </c>
@@ -6929,7 +7282,7 @@
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30" s="109">
+      <c r="D30" s="106">
         <f t="shared" si="4"/>
         <v>800.02635478748061</v>
       </c>
@@ -6972,7 +7325,7 @@
       <c r="C31">
         <v>30</v>
       </c>
-      <c r="D31" s="109">
+      <c r="D31" s="106">
         <f t="shared" si="4"/>
         <v>840.02767252685464</v>
       </c>
@@ -7015,7 +7368,7 @@
       <c r="C32">
         <v>31</v>
       </c>
-      <c r="D32" s="109">
+      <c r="D32" s="106">
         <f t="shared" si="4"/>
         <v>882.02905615319742</v>
       </c>
@@ -7058,7 +7411,7 @@
       <c r="C33">
         <v>32</v>
       </c>
-      <c r="D33" s="109">
+      <c r="D33" s="106">
         <f t="shared" si="4"/>
         <v>926.13050896085736</v>
       </c>
@@ -7101,7 +7454,7 @@
       <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="109">
+      <c r="D34" s="106">
         <f t="shared" si="4"/>
         <v>972.43703440890022</v>
       </c>
@@ -7144,7 +7497,7 @@
       <c r="C35">
         <v>34</v>
       </c>
-      <c r="D35" s="109">
+      <c r="D35" s="106">
         <f t="shared" si="4"/>
         <v>1021.0588861293453</v>
       </c>
@@ -7187,7 +7540,7 @@
       <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="109">
+      <c r="D36" s="106">
         <f t="shared" si="4"/>
         <v>1072.1118304358126</v>
       </c>
@@ -7230,7 +7583,7 @@
       <c r="C37">
         <v>36</v>
       </c>
-      <c r="D37" s="109">
+      <c r="D37" s="106">
         <f t="shared" si="4"/>
         <v>1125.7174219576034</v>
       </c>
@@ -7273,7 +7626,7 @@
       <c r="C38">
         <v>37</v>
       </c>
-      <c r="D38" s="109">
+      <c r="D38" s="106">
         <f t="shared" si="4"/>
         <v>1182.0032930554837</v>
       </c>
@@ -7316,7 +7669,7 @@
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" s="109">
+      <c r="D39" s="106">
         <f t="shared" si="4"/>
         <v>1241.103457708258</v>
       </c>
@@ -7359,7 +7712,7 @@
       <c r="C40">
         <v>39</v>
       </c>
-      <c r="D40" s="109">
+      <c r="D40" s="106">
         <f t="shared" si="4"/>
         <v>1303.158630593671</v>
       </c>
@@ -7402,7 +7755,7 @@
       <c r="C41">
         <v>40</v>
       </c>
-      <c r="D41" s="109">
+      <c r="D41" s="106">
         <f t="shared" si="4"/>
         <v>1368.3165621233545</v>
       </c>
@@ -7445,7 +7798,7 @@
       <c r="C42">
         <v>41</v>
       </c>
-      <c r="D42" s="109">
+      <c r="D42" s="106">
         <f t="shared" si="4"/>
         <v>1436.7323902295223</v>
       </c>
@@ -7488,7 +7841,7 @@
       <c r="C43">
         <v>42</v>
       </c>
-      <c r="D43" s="109">
+      <c r="D43" s="106">
         <f>D42*1.5</f>
         <v>2155.0985853442835</v>
       </c>
@@ -7531,7 +7884,7 @@
       <c r="C44">
         <v>43</v>
       </c>
-      <c r="D44" s="109">
+      <c r="D44" s="106">
         <f t="shared" ref="D44:D52" si="9">D43*1.05</f>
         <v>2262.8535146114978</v>
       </c>
@@ -7574,7 +7927,7 @@
       <c r="C45">
         <v>44</v>
       </c>
-      <c r="D45" s="109">
+      <c r="D45" s="106">
         <f t="shared" si="9"/>
         <v>2375.9961903420726</v>
       </c>
@@ -7617,7 +7970,7 @@
       <c r="C46">
         <v>45</v>
       </c>
-      <c r="D46" s="109">
+      <c r="D46" s="106">
         <f t="shared" si="9"/>
         <v>2494.7959998591764</v>
       </c>
@@ -7660,7 +8013,7 @@
       <c r="C47">
         <v>46</v>
       </c>
-      <c r="D47" s="109">
+      <c r="D47" s="106">
         <f t="shared" si="9"/>
         <v>2619.5357998521354</v>
       </c>
@@ -7703,7 +8056,7 @@
       <c r="C48">
         <v>47</v>
       </c>
-      <c r="D48" s="109">
+      <c r="D48" s="106">
         <f t="shared" si="9"/>
         <v>2750.5125898447423</v>
       </c>
@@ -7746,7 +8099,7 @@
       <c r="C49">
         <v>48</v>
       </c>
-      <c r="D49" s="109">
+      <c r="D49" s="106">
         <f t="shared" si="9"/>
         <v>2888.0382193369796</v>
       </c>
@@ -7789,7 +8142,7 @@
       <c r="C50">
         <v>49</v>
       </c>
-      <c r="D50" s="109">
+      <c r="D50" s="106">
         <f t="shared" si="9"/>
         <v>3032.4401303038289</v>
       </c>
@@ -7832,7 +8185,7 @@
       <c r="C51">
         <v>50</v>
       </c>
-      <c r="D51" s="109">
+      <c r="D51" s="106">
         <f t="shared" si="9"/>
         <v>3184.0621368190205</v>
       </c>
@@ -7875,7 +8228,7 @@
       <c r="C52">
         <v>51</v>
       </c>
-      <c r="D52" s="109">
+      <c r="D52" s="106">
         <f t="shared" si="9"/>
         <v>3343.2652436599715</v>
       </c>
@@ -7918,7 +8271,7 @@
       <c r="C53">
         <v>52</v>
       </c>
-      <c r="D53" s="109">
+      <c r="D53" s="106">
         <f>D52*1.5</f>
         <v>5014.8978654899574</v>
       </c>
@@ -7961,7 +8314,7 @@
       <c r="C54">
         <v>53</v>
       </c>
-      <c r="D54" s="109">
+      <c r="D54" s="106">
         <f t="shared" ref="D54:D62" si="12">D53*1.05</f>
         <v>5265.6427587644557</v>
       </c>
@@ -8004,7 +8357,7 @@
       <c r="C55">
         <v>54</v>
       </c>
-      <c r="D55" s="109">
+      <c r="D55" s="106">
         <f t="shared" si="12"/>
         <v>5528.9248967026788</v>
       </c>
@@ -8047,7 +8400,7 @@
       <c r="C56">
         <v>55</v>
       </c>
-      <c r="D56" s="109">
+      <c r="D56" s="106">
         <f t="shared" si="12"/>
         <v>5805.3711415378129</v>
       </c>
@@ -8090,7 +8443,7 @@
       <c r="C57">
         <v>56</v>
       </c>
-      <c r="D57" s="109">
+      <c r="D57" s="106">
         <f t="shared" si="12"/>
         <v>6095.6396986147038</v>
       </c>
@@ -8133,7 +8486,7 @@
       <c r="C58">
         <v>57</v>
       </c>
-      <c r="D58" s="109">
+      <c r="D58" s="106">
         <f t="shared" si="12"/>
         <v>6400.421683545439</v>
       </c>
@@ -8176,7 +8529,7 @@
       <c r="C59">
         <v>58</v>
       </c>
-      <c r="D59" s="109">
+      <c r="D59" s="106">
         <f t="shared" si="12"/>
         <v>6720.4427677227113</v>
       </c>
@@ -8219,7 +8572,7 @@
       <c r="C60">
         <v>59</v>
       </c>
-      <c r="D60" s="109">
+      <c r="D60" s="106">
         <f t="shared" si="12"/>
         <v>7056.4649061088476</v>
       </c>
@@ -8262,7 +8615,7 @@
       <c r="C61">
         <v>60</v>
       </c>
-      <c r="D61" s="109">
+      <c r="D61" s="106">
         <f t="shared" si="12"/>
         <v>7409.28815141429</v>
       </c>
@@ -8305,7 +8658,7 @@
       <c r="C62">
         <v>61</v>
       </c>
-      <c r="D62" s="109">
+      <c r="D62" s="106">
         <f t="shared" si="12"/>
         <v>7779.7525589850047</v>
       </c>
@@ -8348,7 +8701,7 @@
       <c r="C63">
         <v>62</v>
       </c>
-      <c r="D63" s="109">
+      <c r="D63" s="106">
         <f>D62*1.5</f>
         <v>11669.628838477507</v>
       </c>
@@ -8391,7 +8744,7 @@
       <c r="C64">
         <v>63</v>
       </c>
-      <c r="D64" s="109">
+      <c r="D64" s="106">
         <f t="shared" ref="D64:D82" si="17">D63*1.05</f>
         <v>12253.110280401383</v>
       </c>
@@ -8434,7 +8787,7 @@
       <c r="C65">
         <v>64</v>
       </c>
-      <c r="D65" s="109">
+      <c r="D65" s="106">
         <f t="shared" si="17"/>
         <v>12865.765794421452</v>
       </c>
@@ -8477,7 +8830,7 @@
       <c r="C66">
         <v>65</v>
       </c>
-      <c r="D66" s="109">
+      <c r="D66" s="106">
         <f t="shared" si="17"/>
         <v>13509.054084142525</v>
       </c>
@@ -8520,7 +8873,7 @@
       <c r="C67">
         <v>66</v>
       </c>
-      <c r="D67" s="109">
+      <c r="D67" s="106">
         <f t="shared" si="17"/>
         <v>14184.506788349652</v>
       </c>
@@ -8563,7 +8916,7 @@
       <c r="C68">
         <v>67</v>
       </c>
-      <c r="D68" s="109">
+      <c r="D68" s="106">
         <f t="shared" si="17"/>
         <v>14893.732127767136</v>
       </c>
@@ -8606,7 +8959,7 @@
       <c r="C69">
         <v>68</v>
       </c>
-      <c r="D69" s="109">
+      <c r="D69" s="106">
         <f t="shared" si="17"/>
         <v>15638.418734155493</v>
       </c>
@@ -8649,7 +9002,7 @@
       <c r="C70">
         <v>69</v>
       </c>
-      <c r="D70" s="109">
+      <c r="D70" s="106">
         <f t="shared" si="17"/>
         <v>16420.339670863268</v>
       </c>
@@ -8692,7 +9045,7 @@
       <c r="C71">
         <v>70</v>
       </c>
-      <c r="D71" s="109">
+      <c r="D71" s="106">
         <f t="shared" si="17"/>
         <v>17241.356654406431</v>
       </c>
@@ -8735,7 +9088,7 @@
       <c r="C72">
         <v>71</v>
       </c>
-      <c r="D72" s="109">
+      <c r="D72" s="106">
         <f t="shared" si="17"/>
         <v>18103.424487126755</v>
       </c>
@@ -8778,7 +9131,7 @@
       <c r="C73">
         <v>72</v>
       </c>
-      <c r="D73" s="109">
+      <c r="D73" s="106">
         <f t="shared" si="17"/>
         <v>19008.595711483093</v>
       </c>
@@ -8821,7 +9174,7 @@
       <c r="C74">
         <v>73</v>
       </c>
-      <c r="D74" s="109">
+      <c r="D74" s="106">
         <f t="shared" si="17"/>
         <v>19959.02549705725</v>
       </c>
@@ -8864,7 +9217,7 @@
       <c r="C75">
         <v>74</v>
       </c>
-      <c r="D75" s="109">
+      <c r="D75" s="106">
         <f t="shared" si="17"/>
         <v>20956.976771910115</v>
       </c>
@@ -8907,7 +9260,7 @@
       <c r="C76">
         <v>75</v>
       </c>
-      <c r="D76" s="109">
+      <c r="D76" s="106">
         <f t="shared" si="17"/>
         <v>22004.825610505621</v>
       </c>
@@ -8950,7 +9303,7 @@
       <c r="C77">
         <v>76</v>
       </c>
-      <c r="D77" s="109">
+      <c r="D77" s="106">
         <f t="shared" si="17"/>
         <v>23105.066891030903</v>
       </c>
@@ -8993,7 +9346,7 @@
       <c r="C78">
         <v>77</v>
       </c>
-      <c r="D78" s="109">
+      <c r="D78" s="106">
         <f t="shared" si="17"/>
         <v>24260.320235582451</v>
       </c>
@@ -9036,7 +9389,7 @@
       <c r="C79">
         <v>78</v>
       </c>
-      <c r="D79" s="109">
+      <c r="D79" s="106">
         <f t="shared" si="17"/>
         <v>25473.336247361574</v>
       </c>
@@ -9079,7 +9432,7 @@
       <c r="C80">
         <v>79</v>
       </c>
-      <c r="D80" s="109">
+      <c r="D80" s="106">
         <f t="shared" si="17"/>
         <v>26747.003059729654</v>
       </c>
@@ -9122,7 +9475,7 @@
       <c r="C81">
         <v>80</v>
       </c>
-      <c r="D81" s="109">
+      <c r="D81" s="106">
         <f t="shared" si="17"/>
         <v>28084.353212716138</v>
       </c>
@@ -9165,7 +9518,7 @@
       <c r="C82">
         <v>81</v>
       </c>
-      <c r="D82" s="109">
+      <c r="D82" s="106">
         <f t="shared" si="17"/>
         <v>29488.570873351946</v>
       </c>
@@ -9208,7 +9561,7 @@
       <c r="C83">
         <v>82</v>
       </c>
-      <c r="D83" s="109">
+      <c r="D83" s="106">
         <f>D82*1.5</f>
         <v>44232.856310027921</v>
       </c>
@@ -9251,7 +9604,7 @@
       <c r="C84">
         <v>83</v>
       </c>
-      <c r="D84" s="109">
+      <c r="D84" s="106">
         <f t="shared" ref="D84:D101" si="22">D83*1.05</f>
         <v>46444.499125529321</v>
       </c>
@@ -9294,7 +9647,7 @@
       <c r="C85">
         <v>84</v>
       </c>
-      <c r="D85" s="109">
+      <c r="D85" s="106">
         <f t="shared" si="22"/>
         <v>48766.724081805791</v>
       </c>
@@ -9337,7 +9690,7 @@
       <c r="C86">
         <v>85</v>
       </c>
-      <c r="D86" s="109">
+      <c r="D86" s="106">
         <f t="shared" si="22"/>
         <v>51205.060285896085</v>
       </c>
@@ -9380,7 +9733,7 @@
       <c r="C87">
         <v>86</v>
       </c>
-      <c r="D87" s="109">
+      <c r="D87" s="106">
         <f t="shared" si="22"/>
         <v>53765.313300190894</v>
       </c>
@@ -9423,7 +9776,7 @@
       <c r="C88">
         <v>87</v>
       </c>
-      <c r="D88" s="109">
+      <c r="D88" s="106">
         <f t="shared" si="22"/>
         <v>56453.578965200439</v>
       </c>
@@ -9466,7 +9819,7 @@
       <c r="C89">
         <v>88</v>
       </c>
-      <c r="D89" s="109">
+      <c r="D89" s="106">
         <f t="shared" si="22"/>
         <v>59276.25791346046</v>
       </c>
@@ -9509,7 +9862,7 @@
       <c r="C90">
         <v>89</v>
       </c>
-      <c r="D90" s="109">
+      <c r="D90" s="106">
         <f t="shared" si="22"/>
         <v>62240.070809133489</v>
       </c>
@@ -9552,7 +9905,7 @@
       <c r="C91">
         <v>90</v>
       </c>
-      <c r="D91" s="109">
+      <c r="D91" s="106">
         <f t="shared" si="22"/>
         <v>65352.07434959017</v>
       </c>
@@ -9595,7 +9948,7 @@
       <c r="C92">
         <v>91</v>
       </c>
-      <c r="D92" s="109">
+      <c r="D92" s="106">
         <f t="shared" si="22"/>
         <v>68619.678067069675</v>
       </c>
@@ -9638,7 +9991,7 @@
       <c r="C93">
         <v>92</v>
       </c>
-      <c r="D93" s="109">
+      <c r="D93" s="106">
         <f t="shared" si="22"/>
         <v>72050.661970423156</v>
       </c>
@@ -9681,7 +10034,7 @@
       <c r="C94">
         <v>93</v>
       </c>
-      <c r="D94" s="109">
+      <c r="D94" s="106">
         <f t="shared" si="22"/>
         <v>75653.195068944318</v>
       </c>
@@ -9724,7 +10077,7 @@
       <c r="C95">
         <v>94</v>
       </c>
-      <c r="D95" s="109">
+      <c r="D95" s="106">
         <f t="shared" si="22"/>
         <v>79435.854822391542</v>
       </c>
@@ -9767,7 +10120,7 @@
       <c r="C96">
         <v>95</v>
       </c>
-      <c r="D96" s="109">
+      <c r="D96" s="106">
         <f t="shared" si="22"/>
         <v>83407.647563511127</v>
       </c>
@@ -9810,7 +10163,7 @@
       <c r="C97">
         <v>96</v>
       </c>
-      <c r="D97" s="109">
+      <c r="D97" s="106">
         <f t="shared" si="22"/>
         <v>87578.029941686691</v>
       </c>
@@ -9853,7 +10206,7 @@
       <c r="C98">
         <v>97</v>
       </c>
-      <c r="D98" s="109">
+      <c r="D98" s="106">
         <f t="shared" si="22"/>
         <v>91956.931438771033</v>
       </c>
@@ -9896,7 +10249,7 @@
       <c r="C99">
         <v>98</v>
       </c>
-      <c r="D99" s="109">
+      <c r="D99" s="106">
         <f t="shared" si="22"/>
         <v>96554.77801070959</v>
       </c>
@@ -9939,7 +10292,7 @@
       <c r="C100">
         <v>99</v>
       </c>
-      <c r="D100" s="109">
+      <c r="D100" s="106">
         <f t="shared" si="22"/>
         <v>101382.51691124507</v>
       </c>
@@ -9982,7 +10335,7 @@
       <c r="C101">
         <v>100</v>
       </c>
-      <c r="D101" s="109">
+      <c r="D101" s="106">
         <f t="shared" si="22"/>
         <v>106451.64275680733</v>
       </c>
@@ -10025,7 +10378,7 @@
       <c r="C102">
         <v>101</v>
       </c>
-      <c r="D102" s="109">
+      <c r="D102" s="106">
         <f>D101*3</f>
         <v>319354.92827042198</v>
       </c>
@@ -10065,10 +10418,10 @@
       <c r="B103">
         <v>101</v>
       </c>
-      <c r="C103" s="110" t="s">
+      <c r="C103" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="110" t="s">
+      <c r="D103" s="107" t="s">
         <v>61</v>
       </c>
       <c r="E103">
@@ -10106,16 +10459,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="24" customWidth="1"/>
     <col min="4" max="18" width="9" style="24" customWidth="1"/>
     <col min="19" max="19" width="9" style="23" customWidth="1"/>
@@ -10147,18 +10501,18 @@
       <c r="A4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>75</v>
+      <c r="B4" s="181" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="B5" s="24" t="s">
-        <v>117</v>
+      <c r="B5" s="181" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="B6" s="24" t="s">
-        <v>76</v>
+      <c r="B6" s="181" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -10182,27 +10536,27 @@
     <row r="13" spans="1:19">
       <c r="J13"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="172"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="172"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="173"/>
     </row>
     <row r="15" spans="1:19">
       <c r="J15"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="172"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="172"/>
     </row>
     <row r="16" spans="1:19">
       <c r="J16"/>
@@ -10326,10 +10680,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BB20D3-03DF-4AEB-A03C-84A1DC67EBCF}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10339,41 +10694,41 @@
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="87.125" style="145" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="159"/>
-    <col min="9" max="9" width="9" style="160"/>
-    <col min="10" max="10" width="9" style="161"/>
+    <col min="7" max="7" width="87.125" style="122" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="132"/>
+    <col min="9" max="9" width="9" style="133"/>
+    <col min="10" max="10" width="9" style="134"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="59" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E1" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" s="151" t="s">
-        <v>298</v>
-      </c>
-      <c r="H1" s="153" t="s">
-        <v>305</v>
-      </c>
-      <c r="I1" s="154"/>
-      <c r="J1" s="155"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
+      <c r="G1" s="127" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="174" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="175"/>
+      <c r="J1" s="176"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -10383,48 +10738,48 @@
         <v>63</v>
       </c>
       <c r="C2" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="D2" s="59" t="s">
-        <v>297</v>
-      </c>
       <c r="E2" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="H2" s="162"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="164"/>
+        <v>294</v>
+      </c>
+      <c r="H2" s="177"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="179"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="59" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C3" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>297</v>
-      </c>
       <c r="E3" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="H3" s="156" t="s">
-        <v>302</v>
-      </c>
-      <c r="I3" s="157" t="s">
-        <v>303</v>
-      </c>
-      <c r="J3" s="158" t="s">
-        <v>304</v>
+        <v>294</v>
+      </c>
+      <c r="H3" s="129" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" s="130" t="s">
+        <v>300</v>
+      </c>
+      <c r="J3" s="131" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -10435,25 +10790,25 @@
         <v>64</v>
       </c>
       <c r="C4" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>297</v>
-      </c>
       <c r="E4" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="H4" s="156" t="s">
-        <v>306</v>
-      </c>
-      <c r="I4" s="157" t="s">
-        <v>307</v>
-      </c>
-      <c r="J4" s="158" t="s">
-        <v>308</v>
+        <v>294</v>
+      </c>
+      <c r="H4" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="I4" s="130" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" s="131" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -10464,7 +10819,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -10475,17 +10830,17 @@
       <c r="F5">
         <v>105</v>
       </c>
-      <c r="G5" s="151" t="s">
-        <v>319</v>
-      </c>
-      <c r="H5" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="I5" s="165" t="s">
-        <v>310</v>
-      </c>
-      <c r="J5" s="168" t="s">
-        <v>310</v>
+      <c r="G5" s="127" t="s">
+        <v>315</v>
+      </c>
+      <c r="H5" s="136" t="s">
+        <v>307</v>
+      </c>
+      <c r="I5" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="J5" s="138" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -10496,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -10507,17 +10862,17 @@
       <c r="F6">
         <v>8</v>
       </c>
-      <c r="G6" s="151" t="s">
-        <v>320</v>
-      </c>
-      <c r="H6" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="I6" s="165" t="s">
-        <v>310</v>
-      </c>
-      <c r="J6" s="168" t="s">
-        <v>310</v>
+      <c r="G6" s="127" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="136" t="s">
+        <v>307</v>
+      </c>
+      <c r="I6" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="J6" s="138" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10528,7 +10883,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -10539,28 +10894,28 @@
       <c r="F7">
         <v>99999999</v>
       </c>
-      <c r="G7" s="151" t="s">
-        <v>318</v>
-      </c>
-      <c r="H7" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="I7" s="165" t="s">
-        <v>310</v>
-      </c>
-      <c r="J7" s="168" t="s">
-        <v>310</v>
+      <c r="G7" s="127" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" s="136" t="s">
+        <v>307</v>
+      </c>
+      <c r="I7" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="J7" s="138" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
         <v>99</v>
       </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
       <c r="C8" s="59" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D8" s="59">
         <v>5</v>
@@ -10571,17 +10926,17 @@
       <c r="F8">
         <v>9999</v>
       </c>
-      <c r="G8" s="151" t="s">
-        <v>317</v>
-      </c>
-      <c r="H8" s="166" t="s">
-        <v>309</v>
-      </c>
-      <c r="I8" s="165" t="s">
-        <v>310</v>
-      </c>
-      <c r="J8" s="168" t="s">
-        <v>309</v>
+      <c r="G8" s="127" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="136" t="s">
+        <v>306</v>
+      </c>
+      <c r="I8" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="J8" s="138" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -10592,7 +10947,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -10603,17 +10958,17 @@
       <c r="F9">
         <v>9999</v>
       </c>
-      <c r="G9" s="151" t="s">
-        <v>315</v>
-      </c>
-      <c r="H9" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="I9" s="165" t="s">
-        <v>310</v>
-      </c>
-      <c r="J9" s="168" t="s">
-        <v>310</v>
+      <c r="G9" s="127" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="136" t="s">
+        <v>307</v>
+      </c>
+      <c r="I9" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="J9" s="138" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -10624,7 +10979,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -10635,17 +10990,17 @@
       <c r="F10">
         <v>9999</v>
       </c>
-      <c r="G10" s="151" t="s">
-        <v>316</v>
-      </c>
-      <c r="H10" s="166" t="s">
-        <v>309</v>
-      </c>
-      <c r="I10" s="165" t="s">
-        <v>310</v>
-      </c>
-      <c r="J10" s="168" t="s">
-        <v>310</v>
+      <c r="G10" s="127" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" s="136" t="s">
+        <v>306</v>
+      </c>
+      <c r="I10" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="J10" s="138" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10656,7 +11011,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -10667,28 +11022,28 @@
       <c r="F11">
         <v>9999</v>
       </c>
-      <c r="G11" s="151" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" s="166" t="s">
+      <c r="G11" s="127" t="s">
         <v>310</v>
       </c>
-      <c r="I11" s="165" t="s">
-        <v>310</v>
-      </c>
-      <c r="J11" s="168" t="s">
-        <v>310</v>
+      <c r="H11" s="136" t="s">
+        <v>307</v>
+      </c>
+      <c r="I11" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="J11" s="138" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D12" s="59">
         <v>0</v>
@@ -10699,31 +11054,31 @@
       <c r="F12">
         <v>99</v>
       </c>
-      <c r="G12" s="151" t="s">
-        <v>311</v>
-      </c>
-      <c r="H12" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="I12" s="165" t="s">
-        <v>310</v>
-      </c>
-      <c r="J12" s="168" t="s">
-        <v>309</v>
+      <c r="G12" s="127" t="s">
+        <v>308</v>
+      </c>
+      <c r="H12" s="136" t="s">
+        <v>307</v>
+      </c>
+      <c r="I12" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="J12" s="138" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="152" t="s">
-        <v>299</v>
+      <c r="A13" s="128" t="s">
+        <v>296</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E13" s="59">
         <v>1</v>
@@ -10731,28 +11086,28 @@
       <c r="F13">
         <v>99</v>
       </c>
-      <c r="G13" s="151" t="s">
-        <v>312</v>
-      </c>
-      <c r="H13" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="I13" s="165" t="s">
+      <c r="G13" s="127" t="s">
         <v>309</v>
       </c>
-      <c r="J13" s="168" t="s">
-        <v>309</v>
+      <c r="H13" s="136" t="s">
+        <v>307</v>
+      </c>
+      <c r="I13" s="135" t="s">
+        <v>306</v>
+      </c>
+      <c r="J13" s="138" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D14" s="59">
         <v>0</v>
@@ -10763,17 +11118,17 @@
       <c r="F14">
         <v>99</v>
       </c>
-      <c r="G14" s="151" t="s">
-        <v>313</v>
-      </c>
-      <c r="H14" s="166" t="s">
-        <v>309</v>
-      </c>
-      <c r="I14" s="165" t="s">
-        <v>309</v>
-      </c>
-      <c r="J14" s="168" t="s">
-        <v>310</v>
+      <c r="G14" s="127" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" s="136" t="s">
+        <v>306</v>
+      </c>
+      <c r="I14" s="135" t="s">
+        <v>306</v>
+      </c>
+      <c r="J14" s="138" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -10782,15 +11137,17 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M37"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10831,19 +11188,19 @@
         <v>52</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L1" s="22" t="s">
         <v>53</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10872,13 +11229,13 @@
         <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -10889,7 +11246,7 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C21" si="0">IF(D4&lt;=20,1,IF(D4&lt;=30,2,IF(D4&lt;=40,3,IF(D4&lt;=50,4,IF(D4&lt;=60,5,IF(D4&lt;=80,6,IF(D4&lt;=100,7,IF(D4&gt;=101,8))))))))</f>
@@ -10904,8 +11261,8 @@
       <c r="F4">
         <v>100</v>
       </c>
-      <c r="G4">
-        <v>5</v>
+      <c r="G4" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H4">
         <v>85</v>
@@ -10925,7 +11282,7 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -10940,8 +11297,8 @@
       <c r="F5">
         <v>180</v>
       </c>
-      <c r="G5">
-        <v>5</v>
+      <c r="G5" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H5">
         <v>85</v>
@@ -10961,7 +11318,7 @@
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -10976,8 +11333,8 @@
       <c r="F6">
         <v>360</v>
       </c>
-      <c r="G6">
-        <v>5</v>
+      <c r="G6" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H6">
         <v>85</v>
@@ -10994,10 +11351,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -11012,8 +11369,8 @@
       <c r="F7">
         <v>200</v>
       </c>
-      <c r="G7">
-        <v>5</v>
+      <c r="G7" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H7">
         <v>85</v>
@@ -11030,10 +11387,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -11048,8 +11405,8 @@
       <c r="F8">
         <v>440</v>
       </c>
-      <c r="G8">
-        <v>5</v>
+      <c r="G8" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H8">
         <v>85</v>
@@ -11066,10 +11423,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -11084,8 +11441,8 @@
       <c r="F9">
         <v>230</v>
       </c>
-      <c r="G9">
-        <v>5</v>
+      <c r="G9" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H9">
         <v>85</v>
@@ -11102,10 +11459,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -11120,8 +11477,8 @@
       <c r="F10">
         <v>35</v>
       </c>
-      <c r="G10">
-        <v>5</v>
+      <c r="G10" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H10">
         <v>85</v>
@@ -11138,10 +11495,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -11156,8 +11513,8 @@
       <c r="F11">
         <v>75</v>
       </c>
-      <c r="G11">
-        <v>5</v>
+      <c r="G11" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H11">
         <v>85</v>
@@ -11174,10 +11531,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -11192,8 +11549,8 @@
       <c r="F12">
         <v>210</v>
       </c>
-      <c r="G12">
-        <v>5</v>
+      <c r="G12" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H12">
         <v>85</v>
@@ -11210,10 +11567,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -11228,8 +11585,8 @@
       <c r="F13">
         <v>260</v>
       </c>
-      <c r="G13">
-        <v>5</v>
+      <c r="G13" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H13">
         <v>85</v>
@@ -11246,10 +11603,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -11264,8 +11621,8 @@
       <c r="F14">
         <v>340</v>
       </c>
-      <c r="G14">
-        <v>5</v>
+      <c r="G14" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H14">
         <v>65</v>
@@ -11282,10 +11639,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -11300,8 +11657,8 @@
       <c r="F15">
         <v>250</v>
       </c>
-      <c r="G15">
-        <v>15</v>
+      <c r="G15" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H15">
         <v>45</v>
@@ -11318,10 +11675,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -11336,8 +11693,8 @@
       <c r="F16">
         <v>380</v>
       </c>
-      <c r="G16">
-        <v>15</v>
+      <c r="G16" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H16">
         <v>45</v>
@@ -11354,10 +11711,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -11372,8 +11729,8 @@
       <c r="F17">
         <v>500</v>
       </c>
-      <c r="G17">
-        <v>15</v>
+      <c r="G17" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H17">
         <v>45</v>
@@ -11390,10 +11747,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -11408,8 +11765,8 @@
       <c r="F18">
         <v>280</v>
       </c>
-      <c r="G18">
-        <v>5</v>
+      <c r="G18" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H18">
         <v>85</v>
@@ -11426,10 +11783,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -11444,8 +11801,8 @@
       <c r="F19">
         <v>145</v>
       </c>
-      <c r="G19">
-        <v>5</v>
+      <c r="G19" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H19">
         <v>85</v>
@@ -11462,10 +11819,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -11480,8 +11837,8 @@
       <c r="F20">
         <v>345</v>
       </c>
-      <c r="G20">
-        <v>5</v>
+      <c r="G20" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H20">
         <v>85</v>
@@ -11498,10 +11855,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -11516,8 +11873,8 @@
       <c r="F21">
         <v>225</v>
       </c>
-      <c r="G21">
-        <v>5</v>
+      <c r="G21" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="H21">
         <v>85</v>
@@ -11534,25 +11891,46 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C37" si="1">IF(D23&lt;=20,1,IF(D23&lt;=30,2,IF(D23&lt;=40,3,IF(D23&lt;=50,4,IF(D23&lt;=60,5,IF(D23&lt;=80,6,IF(D23&lt;=100,7,IF(D23&gt;=101,8))))))))</f>
+        <f t="shared" ref="C23:C41" si="1">IF(D23&lt;=20,1,IF(D23&lt;=30,2,IF(D23&lt;=40,3,IF(D23&lt;=50,4,IF(D23&lt;=60,5,IF(D23&lt;=80,6,IF(D23&lt;=100,7,IF(D23&gt;=101,8))))))))</f>
         <v>4</v>
       </c>
       <c r="D23">
         <v>45</v>
       </c>
+      <c r="E23">
+        <v>880</v>
+      </c>
+      <c r="F23">
+        <v>450</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>15</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J23" s="59">
+        <v>30</v>
+      </c>
+      <c r="K23" s="59">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -11561,13 +11939,34 @@
       <c r="D24">
         <v>25</v>
       </c>
+      <c r="E24">
+        <v>650</v>
+      </c>
+      <c r="F24">
+        <v>200</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>15</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J24" s="59">
+        <v>20</v>
+      </c>
+      <c r="K24" s="59">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -11576,13 +11975,34 @@
       <c r="D25">
         <v>45</v>
       </c>
+      <c r="E25">
+        <v>750</v>
+      </c>
+      <c r="F25">
+        <v>340</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J25" s="59">
+        <v>50</v>
+      </c>
+      <c r="K25" s="59">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -11591,13 +12011,34 @@
       <c r="D26">
         <v>31</v>
       </c>
+      <c r="E26">
+        <v>650</v>
+      </c>
+      <c r="F26">
+        <v>300</v>
+      </c>
+      <c r="G26">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>35</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J26" s="59">
+        <v>10</v>
+      </c>
+      <c r="K26" s="59">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -11606,13 +12047,34 @@
       <c r="D27">
         <v>24</v>
       </c>
+      <c r="E27">
+        <v>900</v>
+      </c>
+      <c r="F27">
+        <v>200</v>
+      </c>
+      <c r="G27">
+        <v>45</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J27" s="59">
+        <v>20</v>
+      </c>
+      <c r="K27" s="59">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -11621,13 +12083,34 @@
       <c r="D28">
         <v>13</v>
       </c>
+      <c r="E28">
+        <v>450</v>
+      </c>
+      <c r="F28">
+        <v>200</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>15</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J28" s="59">
+        <v>10</v>
+      </c>
+      <c r="K28" s="59">
+        <v>55</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -11636,13 +12119,34 @@
       <c r="D29">
         <v>55</v>
       </c>
+      <c r="E29">
+        <v>1800</v>
+      </c>
+      <c r="F29">
+        <v>500</v>
+      </c>
+      <c r="G29">
+        <v>35</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J29" s="59">
+        <v>35</v>
+      </c>
+      <c r="K29" s="59">
+        <v>125</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -11651,13 +12155,34 @@
       <c r="D30">
         <v>23</v>
       </c>
+      <c r="E30">
+        <v>350</v>
+      </c>
+      <c r="F30">
+        <v>140</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J30" s="59">
+        <v>0</v>
+      </c>
+      <c r="K30" s="59">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -11666,13 +12191,34 @@
       <c r="D31">
         <v>61</v>
       </c>
+      <c r="E31">
+        <v>1950</v>
+      </c>
+      <c r="F31">
+        <v>450</v>
+      </c>
+      <c r="G31">
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>35</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J31" s="59">
+        <v>55</v>
+      </c>
+      <c r="K31" s="59">
+        <v>75</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -11681,13 +12227,34 @@
       <c r="D32">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>1500</v>
+      </c>
+      <c r="F32">
+        <v>600</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>35</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J32" s="59">
+        <v>35</v>
+      </c>
+      <c r="K32" s="59">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -11696,13 +12263,34 @@
       <c r="D33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>450</v>
+      </c>
+      <c r="F33">
+        <v>300</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J33" s="59">
+        <v>0</v>
+      </c>
+      <c r="K33" s="59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -11711,13 +12299,34 @@
       <c r="D34">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>670</v>
+      </c>
+      <c r="F34">
+        <v>250</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J34" s="59">
+        <v>0</v>
+      </c>
+      <c r="K34" s="59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -11726,13 +12335,34 @@
       <c r="D35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>400</v>
+      </c>
+      <c r="F35">
+        <v>120</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35" s="59">
+        <v>0</v>
+      </c>
+      <c r="K35" s="59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -11741,13 +12371,34 @@
       <c r="D36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>700</v>
+      </c>
+      <c r="F36">
+        <v>330</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J36" s="59">
+        <v>0</v>
+      </c>
+      <c r="K36" s="59">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -11756,8 +12407,204 @@
       <c r="D37">
         <v>27</v>
       </c>
+      <c r="E37">
+        <v>540</v>
+      </c>
+      <c r="F37">
+        <v>250</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" s="59">
+        <v>5</v>
+      </c>
+      <c r="K37" s="59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>67</v>
+      </c>
+      <c r="E39">
+        <v>6000</v>
+      </c>
+      <c r="F39">
+        <v>1000</v>
+      </c>
+      <c r="G39">
+        <v>55</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" s="59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>34</v>
+      </c>
+      <c r="E40">
+        <v>2000</v>
+      </c>
+      <c r="F40">
+        <v>200</v>
+      </c>
+      <c r="G40">
+        <v>35</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" s="59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <v>2000</v>
+      </c>
+      <c r="F41">
+        <v>150</v>
+      </c>
+      <c r="G41">
+        <v>45</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="K41" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="N41" s="148"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="B43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="N43" s="180"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="B44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="N44" s="180"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="B45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="N45" s="180"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="B46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="N46" s="180"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="B47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="N47" s="180"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="B48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="N48" s="180"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="N49" s="180"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="N50" s="180"/>
+      <c r="O50" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="N49:N50"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -11765,222 +12612,346 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD28666A-413B-4444-BD7B-9BE7E6C90A63}">
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="9.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="E1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>110</v>
-      </c>
-      <c r="E2">
-        <v>500</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">IF(D3&lt;=20,1,IF(D3&lt;=30,2,IF(D3&lt;=40,3,IF(D3&lt;=50,4,IF(D3&lt;=60,5,IF(D3&lt;=80,6,IF(D3&lt;=100,7,IF(D3&gt;=101,8))))))))</f>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>32000</v>
       </c>
       <c r="F3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="J3" s="59">
+        <v>75</v>
+      </c>
+      <c r="K3" s="59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>17000</v>
+      </c>
+      <c r="F4">
+        <v>390</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>170</v>
-      </c>
-      <c r="E4">
-        <v>750</v>
-      </c>
-      <c r="F4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="I4" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="J4" s="59">
+        <v>15</v>
+      </c>
+      <c r="K4" s="59">
+        <v>25</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q4" s="149"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D5">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="F5">
+        <v>330</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" s="59">
+        <v>99</v>
+      </c>
+      <c r="K5" s="59">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="Q5" s="180"/>
+      <c r="R5" s="3"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="182"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D6">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>1250</v>
+        <v>35000</v>
       </c>
       <c r="F6">
+        <v>440</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="J6" s="59">
+        <v>45</v>
+      </c>
+      <c r="K6" s="59">
         <v>125</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="Q6" s="180"/>
+      <c r="R6" s="3"/>
+      <c r="W6" s="182"/>
+      <c r="X6" s="182"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>28500</v>
+      </c>
+      <c r="F7">
+        <v>375</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="J7" s="59">
         <v>5</v>
       </c>
-      <c r="B7" s="104" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>400</v>
-      </c>
-      <c r="E7">
-        <v>1500</v>
-      </c>
-      <c r="F7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>600</v>
-      </c>
-      <c r="E8">
-        <v>1750</v>
-      </c>
-      <c r="F8">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>800</v>
-      </c>
-      <c r="E9">
-        <v>2000</v>
-      </c>
-      <c r="F9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="3">
-        <v>101</v>
-      </c>
-      <c r="D10">
-        <v>1000</v>
-      </c>
-      <c r="E10">
-        <v>2500</v>
-      </c>
-      <c r="F10">
-        <v>250</v>
-      </c>
+      <c r="K7" s="59">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="3"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="Q8" s="180"/>
+      <c r="R8" s="3"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="182"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="Q9" s="180"/>
+      <c r="R9" s="3"/>
+      <c r="W9" s="182"/>
+      <c r="X9" s="182"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="Q10" s="180"/>
+      <c r="R10" s="3"/>
+      <c r="W10" s="182"/>
+      <c r="X10" s="182"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="Q11" s="180"/>
+      <c r="R11" s="3"/>
+      <c r="W11" s="182"/>
+      <c r="X11" s="182"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="Q12" s="180"/>
+      <c r="R12" s="3"/>
+      <c r="W12" s="182"/>
+      <c r="X12" s="182"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="Q13" s="180"/>
+      <c r="R13" s="3"/>
+      <c r="W13" s="182"/>
+      <c r="X13" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>